--- a/map/map_info_dataframe.xlsx
+++ b/map/map_info_dataframe.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e64a25058d50c5c4/OneD 2023/11 BRes Data tematdb/tematdb v1.1 20240414 tep check brjcsjp/map/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\일지\20230417\tematdb v1.1 20240417 tep check brjcsjp\map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="173" documentId="11_AD4D066CA252ABDACC1048FE6966572549B8DF5F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB790DA7-0D27-4044-945B-BA8A5172D392}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="21600" windowHeight="11332" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="21600" windowHeight="11333"/>
   </bookViews>
   <sheets>
     <sheet name="test" sheetId="1" r:id="rId1"/>
@@ -197,7 +196,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -538,11 +537,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C10"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -601,10 +600,10 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1">
-        <v>35.190691000000001</v>
+        <v>35.189891699999997</v>
       </c>
       <c r="H2" s="1">
-        <v>128.71767399999999</v>
+        <v>128.718154</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>19</v>

--- a/map/map_info_dataframe.xlsx
+++ b/map/map_info_dataframe.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
   <si>
     <t>site</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -81,22 +81,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Atsushi YAMAMOTO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Michihiro Ohta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>16-1 Onogawa, Tsukuba, Ibaraki 305-8569 Japan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Eun-Ae Choi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>797, Changwon-daero, Seongsan-gu, Changwon-si, Gyeongsangnam-do, 51508</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -149,10 +137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Yukari Katsura (Starrydata2)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Linder Hoehe, 51147 Cologne, Germany</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,19 +161,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Seunghwa Ryu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Eckhard Mueller, Pawel Ziolkowski, Johannes de Boor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TGM characterization, silicide thermoelectrics</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Daejoen, Korea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TGM characterization</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Michihiro Ohta; Atsushi YAMAMOTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Johannes de Boor; Pawel Ziolkowski; Eckhard Mueller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Eun-Ae CHOI; Seungzeon HAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seunghwa RYU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yukari Katsura</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Advanced TE Device</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TGM characterization, silicide TE mater.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TE data and efficiency map</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -538,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -555,13 +563,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -570,7 +578,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -584,7 +592,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -595,10 +603,10 @@
       <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="2"/>
       <c r="G2" s="1">
         <v>35.189891699999997</v>
       </c>
@@ -606,15 +614,15 @@
         <v>128.718154</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1">
         <v>0.1</v>
@@ -622,11 +630,11 @@
       <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>29</v>
+      <c r="E3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="G3" s="1">
         <v>35.214959700000001</v>
@@ -635,26 +643,28 @@
         <v>128.67703890000001</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C4" s="1">
         <v>0.1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="G4" s="1">
         <v>36.372359600000003</v>
       </c>
@@ -662,15 +672,15 @@
         <v>127.35869700000001</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="50.65" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C5" s="1">
         <v>0.1</v>
@@ -679,10 +689,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G5" s="1">
         <v>50.855220000000003</v>
@@ -691,15 +701,15 @@
         <v>7.1196400000000004</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C6" s="1">
         <v>0.1</v>
@@ -707,11 +717,11 @@
       <c r="D6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>28</v>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
       </c>
       <c r="G6" s="1">
         <v>52.382620000000003</v>
@@ -723,10 +733,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1">
         <v>0.1</v>
@@ -734,10 +744,10 @@
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="2"/>
       <c r="G7" s="1">
         <v>45.512439999999998</v>
       </c>
@@ -746,12 +756,12 @@
       </c>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C8" s="1">
         <v>0.1</v>
@@ -759,10 +769,12 @@
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="1"/>
+      <c r="E8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>35</v>
+      </c>
       <c r="G8" s="1">
         <v>36.053690000000003</v>
       </c>
@@ -770,61 +782,36 @@
         <v>140.11903000000001</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A9" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1">
         <v>0.1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="G9" s="1">
-        <v>36.053690000000003</v>
+        <v>36.064698200000002</v>
       </c>
       <c r="H9" s="1">
-        <v>140.11903000000001</v>
+        <v>140.1204458</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.6">
-      <c r="A10" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1">
-        <v>36.064698200000002</v>
-      </c>
-      <c r="H10" s="1">
-        <v>140.1204458</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/map/map_info_dataframe.xlsx
+++ b/map/map_info_dataframe.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="45">
   <si>
     <t>site</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,30 +93,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Nation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>South Korea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Germany</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Italy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Japan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NIMS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,6 +174,34 @@
   </si>
   <si>
     <t>TE data and efficiency map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>City</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Changon, Korea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Daejeon, Korea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Koln, Germany</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coventry, UK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Milan, Italy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tsukuba, Japan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -549,7 +553,7 @@
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
@@ -563,13 +567,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A1" s="1" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -578,7 +582,7 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
@@ -592,7 +596,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A2" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -619,10 +623,10 @@
     </row>
     <row r="3" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A3" s="1" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1">
         <v>0.1</v>
@@ -631,10 +635,10 @@
         <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1">
         <v>35.214959700000001</v>
@@ -648,22 +652,22 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C4" s="1">
         <v>0.1</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1">
         <v>36.372359600000003</v>
@@ -672,15 +676,15 @@
         <v>127.35869700000001</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1">
         <v>0.1</v>
@@ -689,10 +693,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G5" s="1">
         <v>50.855220000000003</v>
@@ -701,15 +705,15 @@
         <v>7.1196400000000004</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1">
         <v>0.1</v>
@@ -721,7 +725,7 @@
         <v>7</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="G6" s="1">
         <v>52.382620000000003</v>
@@ -733,10 +737,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.6">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1">
         <v>0.1</v>
@@ -758,10 +762,10 @@
     </row>
     <row r="8" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C8" s="1">
         <v>0.1</v>
@@ -770,10 +774,10 @@
         <v>13</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G8" s="1">
         <v>36.053690000000003</v>
@@ -787,22 +791,22 @@
     </row>
     <row r="9" spans="1:9" ht="33.75" x14ac:dyDescent="0.6">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1">
         <v>0.1</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G9" s="1">
         <v>36.064698200000002</v>
@@ -811,7 +815,7 @@
         <v>140.1204458</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
